--- a/medicine/Psychotrope/Montagne-saint-émilion/Montagne-saint-émilion.xlsx
+++ b/medicine/Psychotrope/Montagne-saint-émilion/Montagne-saint-émilion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Montagne-saint-%C3%A9milion</t>
+          <t>Montagne-saint-émilion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le montagne-saint-émilion[1] est un vin rouge français d'appellation d'origine contrôlée produit sur la commune de Montagne et ses hameaux Parsac et Saint-Georges. 1 570 hectares de superficie plantés en vigne ont été revendiqués en 2005 avec une production de 74 130 hectolitres.
+Le montagne-saint-émilion est un vin rouge français d'appellation d'origine contrôlée produit sur la commune de Montagne et ses hameaux Parsac et Saint-Georges. 1 570 hectares de superficie plantés en vigne ont été revendiqués en 2005 avec une production de 74 130 hectolitres.
 L'appellation produit exclusivement du vin rouge, et si presque tous les cépages bordelais peuvent y être utilisés (cabernet-sauvignon, cabernet franc, merlot, côt etc.), c'est le merlot qui prédomine nettement.
 L'appellation de ce vin a une triple particularité :
 C'est un vin girondin qui porte le nom du pire adversaire des girondins : la Montagne.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Montagne-saint-%C3%A9milion</t>
+          <t>Montagne-saint-émilion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,11 +528,48 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de Montagne est dans le prolongement nord-est de Saint-Émilion sur la rive droite de la Barbanne. Le rendement de base est fixé à 53 hl/ha. Avant tout enrichissement ou concentration, le moûts doivent contenir au minimum 187 g/l de sucre naturel. Le vin doit présenter après fermentation un degré alcoolique minimum de 11 % vol.
-Les cépages
-Traditionnellement, les vins de Montagne-Saint-Émilion sont des vins d'assemblage de différents cépages, les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Montagne-saint-émilion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montagne-saint-%C3%A9milion</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les cépages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, les vins de Montagne-Saint-Émilion sont des vins d'assemblage de différents cépages, les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
 La répartition des cépages est la suivante :
 Le merlot : c'est le cépage le plus représenté (plus de 75 % de l'encépagement). C'est un cépage précoce de deuxième époque, il apprécie le caractère frais et humide des sols à texture argileuse. Il mûrit bien et apporte au vin de la couleur, une bonne richesse alcoolique, une bonne complexité ainsi que de la souplesse et de la rondeur en bouche.
 Le cabernet franc : essentiellement planté dans le Libournais, il représente près de 20 % de l'encépagement de Saint-Emilion. De précocité moyenne, il est plus utilisé sur les sols calcaires ou à texture un peu plus chaudes (sables et graves). Il apporte au vin une finesse aromatique légèrement épicée, une fraîcheur et une structure tanique, conférant au vin une grande aptitude de vieillissement.
